--- a/doc/Proposal/schedule.xlsx
+++ b/doc/Proposal/schedule.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="일정표" sheetId="1" r:id="rId1"/>
-    <sheet name="마일스톤" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="마일스톤" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t>담당자</t>
   </si>
@@ -225,50 +224,59 @@
     <t>구조설계</t>
   </si>
   <si>
-    <t>홈화면UI(Layout)</t>
-  </si>
-  <si>
-    <t>완성, prototype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">홈화면,아바타기능연결, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">독바 </t>
-  </si>
-  <si>
-    <t>기능완성</t>
-  </si>
-  <si>
-    <t>홈화면,독바</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잠금화면 </t>
-  </si>
-  <si>
-    <t>기능 완성,</t>
-  </si>
-  <si>
-    <t>prototype</t>
-  </si>
-  <si>
     <t xml:space="preserve">프로젝트 </t>
   </si>
   <si>
     <t>기능 완성</t>
   </si>
   <si>
-    <t>통합 Test</t>
-  </si>
-  <si>
     <t>프로그램최종 Test</t>
+  </si>
+  <si>
+    <t>기본 독바 구현,</t>
+  </si>
+  <si>
+    <t>홈화면 배경 레이아웃 완성</t>
+  </si>
+  <si>
+    <t>아바타 기능 연결</t>
+  </si>
+  <si>
+    <t>홈화면 외부 이미지 추가 삭제,</t>
+  </si>
+  <si>
+    <t>수정화면독바,</t>
+  </si>
+  <si>
+    <t>잠금화면,</t>
+  </si>
+  <si>
+    <t>아바타 기능 완성,</t>
+  </si>
+  <si>
+    <t>Prototype 완성</t>
+  </si>
+  <si>
+    <t>통합 Test　</t>
+  </si>
+  <si>
+    <t>홈화면에서 오브젝트 추가, 이동, 삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈화면 UI완성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,24 +310,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color rgb="FF9D1E23"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,8 +360,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE996"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF4CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -381,21 +391,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -505,12 +500,105 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFF5C100"/>
+      </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FFF5C100"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF5C100"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF5C100"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF5C100"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF5C100"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF5C100"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF5C100"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF5C100"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF5C100"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF5C100"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF5C100"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -519,102 +607,126 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -929,51 +1041,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="17" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="17" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="17" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="18"/>
-    </row>
-    <row r="2" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="11"/>
+      <c r="S1" s="12"/>
+    </row>
+    <row r="2" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="33">
         <v>3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="35">
         <v>4</v>
       </c>
       <c r="I2" s="1">
@@ -1014,15 +1126,15 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1036,20 +1148,20 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1063,18 +1175,18 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1088,20 +1200,20 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="1"/>
@@ -1115,18 +1227,18 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="3"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1140,18 +1252,18 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="3"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1165,18 +1277,18 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="3"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1190,20 +1302,20 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="3"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1217,18 +1329,18 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="3"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1242,18 +1354,18 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="3"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1267,7 +1379,7 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1281,8 +1393,8 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1296,7 +1408,7 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -1306,8 +1418,8 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1321,7 +1433,7 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>25</v>
@@ -1331,8 +1443,8 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="8"/>
@@ -1346,7 +1458,7 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -1356,8 +1468,8 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1371,7 +1483,7 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>29</v>
@@ -1381,8 +1493,8 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="6"/>
@@ -1396,7 +1508,7 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1408,8 +1520,8 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1423,7 +1535,7 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1433,8 +1545,8 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -1448,7 +1560,7 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1460,8 +1572,8 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="6"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1475,7 +1587,7 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
@@ -1485,8 +1597,8 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -1500,7 +1612,7 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="19"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1512,8 +1624,8 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="9"/>
@@ -1527,7 +1639,7 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>37</v>
@@ -1537,8 +1649,8 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -1552,7 +1664,7 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>38</v>
@@ -1562,8 +1674,8 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -1577,7 +1689,7 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
@@ -1589,8 +1701,8 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -1604,7 +1716,7 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="19"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>41</v>
@@ -1614,8 +1726,8 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -1629,7 +1741,7 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="19"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
@@ -1641,8 +1753,8 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -1656,7 +1768,7 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>44</v>
@@ -1666,8 +1778,8 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -1681,7 +1793,7 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
@@ -1693,8 +1805,8 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="9"/>
@@ -1708,7 +1820,7 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="19"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>47</v>
@@ -1718,8 +1830,8 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="5"/>
@@ -1733,7 +1845,7 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="19"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1745,8 +1857,8 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="6"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1760,7 +1872,7 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
@@ -1772,8 +1884,8 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -1797,8 +1909,8 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -1822,8 +1934,8 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -1837,20 +1949,20 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -1864,18 +1976,18 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -1889,18 +2001,18 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="18"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1914,18 +2026,18 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -1940,6 +2052,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:C10"/>
@@ -1950,22 +2078,6 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1975,127 +2087,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="7" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="32.25" customWidth="1"/>
+    <col min="5" max="5" width="37.75" customWidth="1"/>
+    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="7" max="7" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="G2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="C4" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="D4" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="31"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="G2:G5"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/Proposal/schedule.xlsx
+++ b/doc/Proposal/schedule.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="일정표" sheetId="1" r:id="rId1"/>
-    <sheet name="마일스톤" sheetId="3" r:id="rId2"/>
+    <sheet name="마일스톤" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>담당자</t>
   </si>
@@ -224,59 +225,50 @@
     <t>구조설계</t>
   </si>
   <si>
+    <t>홈화면UI(Layout)</t>
+  </si>
+  <si>
+    <t>완성, prototype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">홈화면,아바타기능연결, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">독바 </t>
+  </si>
+  <si>
+    <t>기능완성</t>
+  </si>
+  <si>
+    <t>홈화면,독바</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잠금화면 </t>
+  </si>
+  <si>
+    <t>기능 완성,</t>
+  </si>
+  <si>
+    <t>prototype</t>
+  </si>
+  <si>
     <t xml:space="preserve">프로젝트 </t>
   </si>
   <si>
     <t>기능 완성</t>
   </si>
   <si>
+    <t>통합 Test</t>
+  </si>
+  <si>
     <t>프로그램최종 Test</t>
-  </si>
-  <si>
-    <t>기본 독바 구현,</t>
-  </si>
-  <si>
-    <t>홈화면 배경 레이아웃 완성</t>
-  </si>
-  <si>
-    <t>아바타 기능 연결</t>
-  </si>
-  <si>
-    <t>홈화면 외부 이미지 추가 삭제,</t>
-  </si>
-  <si>
-    <t>수정화면독바,</t>
-  </si>
-  <si>
-    <t>잠금화면,</t>
-  </si>
-  <si>
-    <t>아바타 기능 완성,</t>
-  </si>
-  <si>
-    <t>Prototype 완성</t>
-  </si>
-  <si>
-    <t>통합 Test　</t>
-  </si>
-  <si>
-    <t>홈화면에서 오브젝트 추가, 이동, 삭제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈화면 UI완성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,14 +302,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF9D1E23"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,20 +362,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE996"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF4CA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -391,6 +381,21 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -500,105 +505,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFF5C100"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color rgb="FFF5C100"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFF5C100"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF5C100"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF5C100"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF5C100"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFF5C100"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF5C100"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF5C100"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF5C100"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF5C100"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFF5C100"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFF0000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -607,56 +519,59 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -665,68 +580,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1041,51 +929,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="13" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="10" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="12"/>
-    </row>
-    <row r="2" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="15"/>
+      <c r="S1" s="18"/>
+    </row>
+    <row r="2" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="1">
         <v>3</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="1">
         <v>4</v>
       </c>
       <c r="I2" s="1">
@@ -1126,15 +1014,15 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="36"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1148,20 +1036,20 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="36"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1175,18 +1063,18 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="37"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1200,20 +1088,20 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="1"/>
@@ -1227,18 +1115,18 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1252,18 +1140,18 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="37"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1277,18 +1165,18 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="37"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1302,20 +1190,20 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="37"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1329,18 +1217,18 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="37"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1354,18 +1242,18 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1379,7 +1267,7 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1393,8 +1281,8 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="36"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1408,7 +1296,7 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -1418,8 +1306,8 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="36"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1433,7 +1321,7 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>25</v>
@@ -1443,8 +1331,8 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="36"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="8"/>
@@ -1458,7 +1346,7 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -1468,8 +1356,8 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="36"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1483,7 +1371,7 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>29</v>
@@ -1493,8 +1381,8 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="6"/>
@@ -1508,7 +1396,7 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1520,8 +1408,8 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="36"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1535,7 +1423,7 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1545,8 +1433,8 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="36"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -1560,7 +1448,7 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1572,8 +1460,8 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="36"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="6"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1587,7 +1475,7 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
@@ -1597,8 +1485,8 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="36"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -1612,7 +1500,7 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1624,8 +1512,8 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="36"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="9"/>
@@ -1639,7 +1527,7 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>37</v>
@@ -1649,8 +1537,8 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="36"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -1664,7 +1552,7 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>38</v>
@@ -1674,8 +1562,8 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="36"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -1689,7 +1577,7 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
@@ -1701,8 +1589,8 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="36"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -1716,7 +1604,7 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>41</v>
@@ -1726,8 +1614,8 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="36"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -1741,7 +1629,7 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
@@ -1753,8 +1641,8 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="36"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -1768,7 +1656,7 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>44</v>
@@ -1778,8 +1666,8 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="36"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -1793,7 +1681,7 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
@@ -1805,8 +1693,8 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="36"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="9"/>
@@ -1820,7 +1708,7 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>47</v>
@@ -1830,8 +1718,8 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="36"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="5"/>
@@ -1845,7 +1733,7 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1857,8 +1745,8 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="36"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="6"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1872,7 +1760,7 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
@@ -1884,8 +1772,8 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="36"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -1909,8 +1797,8 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="36"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -1934,8 +1822,8 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -1949,20 +1837,20 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="12"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="36"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -1976,18 +1864,18 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="14"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="36"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2001,18 +1889,18 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="15"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="12"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="36"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2026,18 +1914,18 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="39"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2052,22 +1940,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:C10"/>
@@ -2078,6 +1950,22 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2087,138 +1975,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="32.25" customWidth="1"/>
-    <col min="5" max="5" width="37.75" customWidth="1"/>
-    <col min="6" max="6" width="27.75" customWidth="1"/>
-    <col min="7" max="7" width="28.625" customWidth="1"/>
+    <col min="2" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="E3" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="22" t="s">
-        <v>72</v>
-      </c>
+      <c r="C4" s="23"/>
       <c r="D4" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="D2:D3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="G2:G5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>